--- a/output/flourish_prefeitos_municipios_capitais.xlsx
+++ b/output/flourish_prefeitos_municipios_capitais.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>ideologia</t>
   </si>
@@ -22,43 +22,49 @@
     <t>sigla_partido</t>
   </si>
   <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>PSDB</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>AVT</t>
+  </si>
+  <si>
+    <t>PODE</t>
+  </si>
+  <si>
+    <t>PRB</t>
+  </si>
+  <si>
+    <t>PSOL</t>
+  </si>
+  <si>
     <t>CDD</t>
   </si>
   <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MDB</t>
-  </si>
-  <si>
     <t>PC DO B</t>
   </si>
   <si>
-    <t>PDT</t>
-  </si>
-  <si>
     <t>PHS</t>
   </si>
   <si>
     <t>PMN</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>PRB</t>
-  </si>
-  <si>
-    <t>PSB</t>
-  </si>
-  <si>
-    <t>PSD</t>
-  </si>
-  <si>
-    <t>PSDB</t>
-  </si>
-  <si>
-    <t>PSOL</t>
   </si>
   <si>
     <t>PT</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,129 +460,114 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D1" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E1" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F1" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,56 +575,50 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -642,50 +627,44 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -702,11 +681,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -714,30 +690,27 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -746,56 +719,50 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -806,77 +773,68 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -884,11 +842,8 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -896,13 +851,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -910,16 +865,13 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -928,15 +880,58 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
     </row>
